--- a/biology/Microbiologie/Peneroplidae/Peneroplidae.xlsx
+++ b/biology/Microbiologie/Peneroplidae/Peneroplidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Peneroplidae sont une famille de foraminifères de la classe des Tubothalamea et de l'ordre des Miliolida.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon le World Register of Marine Species                               (29 avril 2022)[1], la famille compte dix genres, dont trois sont fossiles :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon le World Register of Marine Species                               (29 avril 2022), la famille compte dix genres, dont trois sont fossiles :
 † Archiacina Munier-Chalmas in Vasseur, 1878
 Coscinospira Ehrenberg, 1839
 Dendritina d'Orbigny, 1826
@@ -551,7 +565,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Max Schultze, Über den Organismus der Polythalamien (Foraminiferen) nebst Bemerkungen über die Rhizopoden im Allgemeinen, Leipzig, W. Engelmann, 1854 (lire en ligne), p. 1-68</t>
         </is>
